--- a/SchedulingData/dynamic11/pso/scheduling2_14.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>230.98</v>
+        <v>247.2</v>
       </c>
       <c r="D2" t="n">
-        <v>273.2</v>
+        <v>310.1</v>
       </c>
       <c r="E2" t="n">
-        <v>15.18</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>273.2</v>
+        <v>265.08</v>
       </c>
       <c r="D3" t="n">
-        <v>320.04</v>
+        <v>334.26</v>
       </c>
       <c r="E3" t="n">
-        <v>12.636</v>
+        <v>10.824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>223.4</v>
+        <v>244.96</v>
       </c>
       <c r="D4" t="n">
-        <v>283.82</v>
+        <v>314.42</v>
       </c>
       <c r="E4" t="n">
-        <v>12.748</v>
+        <v>10.728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>236.02</v>
+        <v>249.24</v>
       </c>
       <c r="D5" t="n">
-        <v>269.98</v>
+        <v>311.34</v>
       </c>
       <c r="E5" t="n">
-        <v>10.692</v>
+        <v>11.556</v>
       </c>
     </row>
     <row r="6">
@@ -542,131 +542,131 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>269.98</v>
+        <v>265.54</v>
       </c>
       <c r="D6" t="n">
-        <v>317.08</v>
+        <v>310.44</v>
       </c>
       <c r="E6" t="n">
-        <v>7.612</v>
+        <v>8.795999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>205.08</v>
+        <v>310.1</v>
       </c>
       <c r="D7" t="n">
-        <v>257.84</v>
+        <v>367.3</v>
       </c>
       <c r="E7" t="n">
-        <v>15.276</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>212.74</v>
+        <v>227.66</v>
       </c>
       <c r="D8" t="n">
-        <v>257.12</v>
+        <v>305.2</v>
       </c>
       <c r="E8" t="n">
-        <v>12.508</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>317.08</v>
+        <v>311.34</v>
       </c>
       <c r="D9" t="n">
-        <v>364.18</v>
+        <v>360.52</v>
       </c>
       <c r="E9" t="n">
-        <v>5.532</v>
+        <v>8.747999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>226.9</v>
+        <v>305.2</v>
       </c>
       <c r="D10" t="n">
-        <v>270.66</v>
+        <v>387.5</v>
       </c>
       <c r="E10" t="n">
-        <v>13.584</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>364.18</v>
+        <v>314.42</v>
       </c>
       <c r="D11" t="n">
-        <v>414.08</v>
+        <v>372.82</v>
       </c>
       <c r="E11" t="n">
-        <v>2.672</v>
+        <v>7.488</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>414.08</v>
+        <v>334.26</v>
       </c>
       <c r="D12" t="n">
-        <v>505.14</v>
+        <v>415.18</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>7.352</v>
       </c>
     </row>
     <row r="13">
@@ -675,36 +675,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>505.14</v>
+        <v>310.44</v>
       </c>
       <c r="D13" t="n">
-        <v>564.8200000000001</v>
+        <v>348.2</v>
       </c>
       <c r="E13" t="n">
-        <v>27.192</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>270.66</v>
+        <v>387.5</v>
       </c>
       <c r="D14" t="n">
-        <v>309.3</v>
+        <v>437.26</v>
       </c>
       <c r="E14" t="n">
-        <v>11.34</v>
+        <v>7.564</v>
       </c>
     </row>
     <row r="15">
@@ -713,131 +713,131 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>564.8200000000001</v>
+        <v>348.2</v>
       </c>
       <c r="D15" t="n">
-        <v>619.98</v>
+        <v>412.08</v>
       </c>
       <c r="E15" t="n">
-        <v>24.816</v>
+        <v>2.852</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>309.3</v>
+        <v>415.18</v>
       </c>
       <c r="D16" t="n">
-        <v>386.9</v>
+        <v>457.3</v>
       </c>
       <c r="E16" t="n">
-        <v>7.18</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>320.04</v>
+        <v>372.82</v>
       </c>
       <c r="D17" t="n">
-        <v>396.94</v>
+        <v>419.84</v>
       </c>
       <c r="E17" t="n">
-        <v>9.555999999999999</v>
+        <v>4.896</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>619.98</v>
+        <v>367.3</v>
       </c>
       <c r="D18" t="n">
-        <v>689.0599999999999</v>
+        <v>420.86</v>
       </c>
       <c r="E18" t="n">
-        <v>22.528</v>
+        <v>6.304</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>257.12</v>
+        <v>437.26</v>
       </c>
       <c r="D19" t="n">
-        <v>321.3</v>
+        <v>500.86</v>
       </c>
       <c r="E19" t="n">
-        <v>9.699999999999999</v>
+        <v>4.324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>396.94</v>
+        <v>457.3</v>
       </c>
       <c r="D20" t="n">
-        <v>446.9</v>
+        <v>514.12</v>
       </c>
       <c r="E20" t="n">
-        <v>7.18</v>
+        <v>2.168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>386.9</v>
+        <v>419.84</v>
       </c>
       <c r="D21" t="n">
-        <v>442.66</v>
+        <v>455.44</v>
       </c>
       <c r="E21" t="n">
-        <v>4.204</v>
+        <v>2.476</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>321.3</v>
+        <v>514.12</v>
       </c>
       <c r="D22" t="n">
-        <v>376</v>
+        <v>591.58</v>
       </c>
       <c r="E22" t="n">
-        <v>6.84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -865,150 +865,150 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>376</v>
+        <v>591.58</v>
       </c>
       <c r="D23" t="n">
-        <v>411.06</v>
+        <v>645.52</v>
       </c>
       <c r="E23" t="n">
-        <v>4.464</v>
+        <v>27.756</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>442.66</v>
+        <v>412.08</v>
       </c>
       <c r="D24" t="n">
-        <v>496.96</v>
+        <v>473.38</v>
       </c>
       <c r="E24" t="n">
-        <v>0.904</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>496.96</v>
+        <v>473.38</v>
       </c>
       <c r="D25" t="n">
-        <v>581.75</v>
+        <v>512.78</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>283.82</v>
+        <v>420.86</v>
       </c>
       <c r="D26" t="n">
-        <v>346.04</v>
+        <v>485.56</v>
       </c>
       <c r="E26" t="n">
-        <v>8.156000000000001</v>
+        <v>3.444</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>446.9</v>
+        <v>485.56</v>
       </c>
       <c r="D27" t="n">
-        <v>494.12</v>
+        <v>520.62</v>
       </c>
       <c r="E27" t="n">
-        <v>4.588</v>
+        <v>1.068</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>494.12</v>
+        <v>520.62</v>
       </c>
       <c r="D28" t="n">
-        <v>526.62</v>
+        <v>619.78</v>
       </c>
       <c r="E28" t="n">
-        <v>2.468</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>581.75</v>
+        <v>512.78</v>
       </c>
       <c r="D29" t="n">
-        <v>654.65</v>
+        <v>584.98</v>
       </c>
       <c r="E29" t="n">
-        <v>27.84</v>
+        <v>24.12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>257.84</v>
+        <v>619.78</v>
       </c>
       <c r="D30" t="n">
-        <v>307.32</v>
+        <v>657.88</v>
       </c>
       <c r="E30" t="n">
-        <v>11.468</v>
+        <v>27.88</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>689.0599999999999</v>
+        <v>584.98</v>
       </c>
       <c r="D31" t="n">
-        <v>726.96</v>
+        <v>624.9400000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>20.368</v>
+        <v>21.744</v>
       </c>
     </row>
     <row r="32">
@@ -1036,90 +1036,90 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>346.04</v>
+        <v>500.86</v>
       </c>
       <c r="D32" t="n">
-        <v>390.84</v>
+        <v>538.0599999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>5.296</v>
+        <v>2.244</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>411.06</v>
+        <v>360.52</v>
       </c>
       <c r="D33" t="n">
-        <v>456.86</v>
+        <v>412.52</v>
       </c>
       <c r="E33" t="n">
-        <v>1.504</v>
+        <v>5.668</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>456.86</v>
+        <v>412.52</v>
       </c>
       <c r="D34" t="n">
-        <v>545.35</v>
+        <v>461.72</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>2.368</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>307.32</v>
+        <v>645.52</v>
       </c>
       <c r="D35" t="n">
-        <v>390.52</v>
+        <v>695.22</v>
       </c>
       <c r="E35" t="n">
-        <v>8.228</v>
+        <v>24.896</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>526.62</v>
+        <v>455.44</v>
       </c>
       <c r="D36" t="n">
-        <v>593.58</v>
+        <v>547.09</v>
       </c>
       <c r="E36" t="n">
         <v>30</v>
@@ -1127,21 +1127,21 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>593.58</v>
+        <v>547.09</v>
       </c>
       <c r="D37" t="n">
-        <v>661.38</v>
+        <v>620.95</v>
       </c>
       <c r="E37" t="n">
-        <v>27.36</v>
+        <v>27.244</v>
       </c>
     </row>
     <row r="38">
@@ -1150,131 +1150,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>390.52</v>
+        <v>620.95</v>
       </c>
       <c r="D38" t="n">
-        <v>449.22</v>
+        <v>667.49</v>
       </c>
       <c r="E38" t="n">
-        <v>4.988</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>545.35</v>
+        <v>624.9400000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>578.05</v>
+        <v>694.02</v>
       </c>
       <c r="E39" t="n">
-        <v>27.92</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>pond46</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>578.05</v>
-      </c>
-      <c r="D40" t="n">
-        <v>629.55</v>
-      </c>
-      <c r="E40" t="n">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>pond4</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>390.84</v>
-      </c>
-      <c r="D41" t="n">
-        <v>446.24</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2.876</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>pond49</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>629.55</v>
-      </c>
-      <c r="D42" t="n">
-        <v>686.37</v>
-      </c>
-      <c r="E42" t="n">
-        <v>21.308</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>pond9</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>449.22</v>
-      </c>
-      <c r="D43" t="n">
-        <v>542.42</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1.748</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>depot1</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>542.42</v>
-      </c>
-      <c r="D44" t="n">
-        <v>645.22</v>
-      </c>
-      <c r="E44" t="n">
-        <v>30</v>
+        <v>19.456</v>
       </c>
     </row>
   </sheetData>
